--- a/指令分析.xlsx
+++ b/指令分析.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="280">
   <si>
     <t>ALU运算</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1102,6 +1102,10 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1469,10 +1473,19 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1503,15 +1516,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1820,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1848,21 +1852,21 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="29" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="29" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" s="33"/>
+      <c r="Q1" s="36"/>
       <c r="R1" s="2" t="s">
         <v>86</v>
       </c>
@@ -1996,10 +2000,10 @@
       <c r="F4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="5">
         <v>1</v>
       </c>
@@ -2118,10 +2122,10 @@
       <c r="F6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="5">
         <v>1</v>
       </c>
@@ -2299,11 +2303,11 @@
       <c r="E9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="5">
         <v>0</v>
       </c>
@@ -2360,10 +2364,10 @@
       <c r="F10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="37"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="5">
         <v>0</v>
       </c>
@@ -2420,10 +2424,10 @@
       <c r="F11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="37"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="5">
         <v>0</v>
       </c>
@@ -2480,10 +2484,10 @@
       <c r="F12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="5">
         <v>0</v>
       </c>
@@ -2602,10 +2606,10 @@
       <c r="F14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="5">
         <v>0</v>
       </c>
@@ -2662,10 +2666,10 @@
       <c r="F15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="5">
         <v>1</v>
       </c>
@@ -2784,10 +2788,10 @@
       <c r="F17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="28"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="5">
         <v>1</v>
       </c>
@@ -2844,10 +2848,10 @@
       <c r="F18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="5">
         <v>1</v>
       </c>
@@ -2904,10 +2908,10 @@
       <c r="F19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="5">
         <v>1</v>
       </c>
@@ -2964,10 +2968,10 @@
       <c r="F20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="5">
         <v>1</v>
       </c>
@@ -3075,7 +3079,7 @@
         <v>97</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="27" t="s">
         <v>269</v>
       </c>
       <c r="E22" s="15" t="s">
@@ -3454,10 +3458,10 @@
       <c r="F28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="40"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="5">
         <v>0</v>
       </c>
@@ -3638,10 +3642,10 @@
       <c r="F31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="40"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="5">
         <v>0</v>
       </c>
@@ -3805,11 +3809,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G31:H31"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
@@ -3822,6 +3821,11 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3861,21 +3865,21 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="29" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="29" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" s="33"/>
+      <c r="Q1" s="36"/>
       <c r="R1" s="2" t="s">
         <v>86</v>
       </c>
@@ -4006,11 +4010,11 @@
       <c r="E4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="5">
         <v>0</v>
       </c>
@@ -4067,10 +4071,10 @@
       <c r="F5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="5">
         <v>0</v>
       </c>
@@ -4127,10 +4131,10 @@
       <c r="F6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="5">
         <v>0</v>
       </c>
@@ -4187,10 +4191,10 @@
       <c r="F7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="5">
         <v>0</v>
       </c>
@@ -4247,10 +4251,10 @@
       <c r="F8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="39"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="5">
         <v>0</v>
       </c>
@@ -4290,14 +4294,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/指令分析.xlsx
+++ b/指令分析.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="指令集" sheetId="1" r:id="rId1"/>
-    <sheet name="跳转指令" sheetId="4" r:id="rId2"/>
-    <sheet name="控制信号" sheetId="3" r:id="rId3"/>
-    <sheet name="部件接口" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="跳转指令" sheetId="4" r:id="rId3"/>
+    <sheet name="控制信号" sheetId="3" r:id="rId4"/>
+    <sheet name="部件接口" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="309">
   <si>
     <t>ALU运算</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -89,9 +90,6 @@
   <si>
     <t>I</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP ← SP + Si(imm)</t>
   </si>
   <si>
     <t>01100</t>
@@ -1107,6 +1105,102 @@
   <si>
     <t>imm</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP ← SP + Si(imm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>PCMux</t>
+  </si>
+  <si>
+    <t>PCRegister</t>
+  </si>
+  <si>
+    <t>PCAdder</t>
+  </si>
+  <si>
+    <t>IfIdRegisters</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>ImmExtend</t>
+  </si>
+  <si>
+    <t>PCAddim</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registers</t>
+  </si>
+  <si>
+    <t>Tregisters</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BJControler</t>
+  </si>
+  <si>
+    <t>ConflictController</t>
+  </si>
+  <si>
+    <t>ControllerMux</t>
+  </si>
+  <si>
+    <t>rst</t>
+  </si>
+  <si>
+    <t>immsele</t>
+  </si>
+  <si>
+    <t>idcommand</t>
+  </si>
+  <si>
+    <t>controlsignal</t>
+  </si>
+  <si>
+    <t>idrd</t>
+  </si>
+  <si>
+    <t>idaluop</t>
+  </si>
+  <si>
+    <t>idtop</t>
+  </si>
+  <si>
+    <t>idrxaddr</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>idryaddr</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>idbjop</t>
+  </si>
+  <si>
+    <t>IDExRegisters</t>
+  </si>
+  <si>
+    <t>FirstOpMux</t>
+  </si>
+  <si>
+    <t>RyMux</t>
+  </si>
+  <si>
+    <t>Alu</t>
+  </si>
+  <si>
+    <t>SecondOpMux</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExMemRegisters</t>
   </si>
 </sst>
 </file>
@@ -1191,12 +1285,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1393,7 +1493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1482,12 +1582,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1518,6 +1612,13 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1824,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1852,23 +1953,23 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" s="36"/>
+      <c r="Q1" s="34"/>
       <c r="R1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
@@ -1883,48 +1984,48 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -1933,52 +2034,52 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>155</v>
-      </c>
       <c r="T3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6">
@@ -1986,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
@@ -2000,27 +2101,27 @@
       <c r="F4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="5">
         <v>1</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>11</v>
@@ -2046,10 +2147,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>13</v>
@@ -2073,16 +2174,16 @@
         <v>8</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>11</v>
@@ -2108,19 +2209,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>7</v>
@@ -2133,19 +2234,19 @@
         <v>8</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -2168,16 +2269,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>6</v>
@@ -2186,28 +2287,28 @@
         <v>15</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -2230,16 +2331,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>6</v>
@@ -2248,7 +2349,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
@@ -2257,19 +2358,19 @@
         <v>18</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P8" s="5">
         <v>0</v>
@@ -2292,42 +2393,42 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="5">
         <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="M9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P9" s="5">
         <v>0</v>
@@ -2350,32 +2451,32 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="5">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>18</v>
@@ -2387,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P10" s="5">
         <v>0</v>
@@ -2410,44 +2511,44 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="5">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N11" s="5">
         <v>0</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11" s="5">
         <v>0</v>
@@ -2470,24 +2571,24 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="E12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="41"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="5">
         <v>0</v>
       </c>
@@ -2495,19 +2596,19 @@
         <v>8</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N12" s="5">
         <v>0</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P12" s="5">
         <v>0</v>
@@ -2530,16 +2631,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>6</v>
@@ -2548,28 +2649,28 @@
         <v>15</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P13" s="5">
         <v>0</v>
@@ -2592,35 +2693,35 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="30"/>
+        <v>48</v>
+      </c>
+      <c r="H14" s="40"/>
       <c r="I14" s="5">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>18</v>
@@ -2629,7 +2730,7 @@
         <v>18</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P14" s="5">
         <v>0</v>
@@ -2652,16 +2753,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>169</v>
-      </c>
       <c r="D15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>6</v>
@@ -2674,13 +2775,13 @@
         <v>1</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>10</v>
@@ -2689,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" s="5">
         <v>0</v>
@@ -2712,16 +2813,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>6</v>
@@ -2739,19 +2840,19 @@
         <v>17</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N16" s="5" t="s">
+      <c r="O16" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="P16" s="5">
         <v>1</v>
@@ -2774,38 +2875,38 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="5">
         <v>1</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>10</v>
@@ -2834,44 +2935,44 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="E18" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="5">
         <v>1</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N18" s="5">
         <v>0</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P18" s="5">
         <v>0</v>
@@ -2894,44 +2995,44 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="30"/>
+        <v>60</v>
+      </c>
+      <c r="H19" s="40"/>
       <c r="I19" s="5">
         <v>1</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N19" s="5">
         <v>0</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P19" s="5">
         <v>0</v>
@@ -2954,38 +3055,38 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="5">
         <v>1</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="N20" s="5">
         <v>0</v>
@@ -3014,46 +3115,46 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="5">
         <v>1</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N21" s="5">
         <v>0</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P21" s="5">
         <v>0</v>
@@ -3076,44 +3177,44 @@
         <v>19</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="F22" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="G22" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="H22" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="K22" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="L22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="N22" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P22" s="5">
         <v>0</v>
@@ -3136,16 +3237,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>6</v>
@@ -3154,28 +3255,28 @@
         <v>15</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="5">
         <v>1</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P23" s="5">
         <v>0</v>
@@ -3198,16 +3299,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="E24" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>6</v>
@@ -3216,7 +3317,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
@@ -3225,19 +3326,19 @@
         <v>18</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P24" s="5">
         <v>0</v>
@@ -3260,16 +3361,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>77</v>
-      </c>
       <c r="E25" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>6</v>
@@ -3278,28 +3379,28 @@
         <v>15</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P25" s="5">
         <v>0</v>
@@ -3322,16 +3423,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>6</v>
@@ -3340,28 +3441,28 @@
         <v>15</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I26" s="5">
         <v>1</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="O26" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P26" s="5">
         <v>0</v>
@@ -3382,16 +3483,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>6</v>
@@ -3409,19 +3510,19 @@
         <v>17</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O27" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="P27" s="5">
         <v>0</v>
@@ -3444,16 +3545,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>6</v>
@@ -3461,7 +3562,7 @@
       <c r="G28" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="31"/>
+      <c r="H28" s="41"/>
       <c r="I28" s="5">
         <v>0</v>
       </c>
@@ -3469,19 +3570,19 @@
         <v>8</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P28" s="5">
         <v>0</v>
@@ -3504,16 +3605,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>183</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>6</v>
@@ -3522,28 +3623,28 @@
         <v>15</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I29" s="5">
         <v>1</v>
       </c>
       <c r="J29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="N29" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P29" s="5">
         <v>0</v>
@@ -3566,16 +3667,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>6</v>
@@ -3584,28 +3685,28 @@
         <v>15</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="M30" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P30" s="5">
         <v>0</v>
@@ -3628,16 +3729,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>6</v>
@@ -3645,7 +3746,7 @@
       <c r="G31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="31"/>
+      <c r="H31" s="41"/>
       <c r="I31" s="5">
         <v>0</v>
       </c>
@@ -3653,19 +3754,19 @@
         <v>17</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P31" s="5">
         <v>0</v>
@@ -3688,16 +3789,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>187</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>6</v>
@@ -3706,28 +3807,28 @@
         <v>15</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I32" s="5">
         <v>1</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N32" s="5">
         <v>0</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P32" s="5">
         <v>0</v>
@@ -3750,46 +3851,46 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="D33" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>194</v>
-      </c>
       <c r="I33" s="5">
         <v>0</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P33" s="5">
         <v>0</v>
@@ -3809,6 +3910,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
@@ -3821,11 +3927,6 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3834,6 +3935,153 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J6" t="s">
+        <v>301</v>
+      </c>
+      <c r="K6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -3865,23 +4113,23 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" s="36"/>
+      <c r="Q1" s="34"/>
       <c r="R1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S1" s="3"/>
       <c r="T1" s="4"/>
@@ -3896,48 +4144,48 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -3946,52 +4194,52 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>155</v>
-      </c>
       <c r="T3" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6">
@@ -3999,22 +4247,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="5">
         <v>0</v>
       </c>
@@ -4022,19 +4270,19 @@
         <v>17</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P4" s="5">
         <v>0</v>
@@ -4057,24 +4305,24 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="5">
         <v>0</v>
       </c>
@@ -4082,7 +4330,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>18</v>
@@ -4094,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="5">
         <v>0</v>
@@ -4117,24 +4365,24 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="5">
         <v>0</v>
       </c>
@@ -4142,19 +4390,19 @@
         <v>17</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -4177,24 +4425,24 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="5">
         <v>0</v>
       </c>
@@ -4202,19 +4450,19 @@
         <v>8</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" s="5">
         <v>0</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -4237,35 +4485,35 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="30"/>
+        <v>48</v>
+      </c>
+      <c r="H8" s="40"/>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>18</v>
@@ -4274,7 +4522,7 @@
         <v>18</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P8" s="5">
         <v>0</v>
@@ -4308,7 +4556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -4325,87 +4573,87 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>215</v>
-      </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
         <v>203</v>
-      </c>
-      <c r="C3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
         <v>223</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>224</v>
-      </c>
-      <c r="C5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
         <v>206</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>207</v>
-      </c>
-      <c r="C6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
         <v>209</v>
-      </c>
-      <c r="B7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" t="s">
         <v>211</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>212</v>
-      </c>
-      <c r="C8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4415,7 +4663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -4432,189 +4680,189 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
         <v>216</v>
-      </c>
-      <c r="C1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
         <v>244</v>
-      </c>
-      <c r="B4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" t="s">
         <v>246</v>
-      </c>
-      <c r="B5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
         <v>248</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>249</v>
-      </c>
-      <c r="C6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" t="s">
         <v>251</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>252</v>
-      </c>
-      <c r="C7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" t="s">
         <v>254</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>255</v>
-      </c>
-      <c r="C8" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
         <v>257</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>258</v>
-      </c>
-      <c r="C9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s">
         <v>260</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>261</v>
-      </c>
-      <c r="C10" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" t="s">
         <v>263</v>
       </c>
-      <c r="B11" t="s">
-        <v>264</v>
-      </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" t="s">
         <v>265</v>
-      </c>
-      <c r="C12" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" t="s">
         <v>221</v>
       </c>
-      <c r="B13" t="s">
-        <v>222</v>
-      </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" t="s">
         <v>226</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>227</v>
-      </c>
-      <c r="C14" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" t="s">
         <v>230</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>231</v>
-      </c>
-      <c r="C15" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" t="s">
         <v>233</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>234</v>
-      </c>
-      <c r="C16" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" t="s">
         <v>236</v>
-      </c>
-      <c r="B17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/指令分析.xlsx
+++ b/指令分析.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="指令集" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="跳转指令" sheetId="4" r:id="rId3"/>
-    <sheet name="控制信号" sheetId="3" r:id="rId4"/>
-    <sheet name="部件接口" sheetId="2" r:id="rId5"/>
+    <sheet name="T指令" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="跳转指令" sheetId="4" r:id="rId4"/>
+    <sheet name="控制信号" sheetId="3" r:id="rId5"/>
+    <sheet name="部件接口" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="316">
   <si>
     <t>ALU运算</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1201,6 +1202,35 @@
   </si>
   <si>
     <t>ExMemRegisters</t>
+  </si>
+  <si>
+    <t>if (R[x] == R[y])  T ← 0
+else  T ← 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加Tregister 16位</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>删掉</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>移到Ex阶段</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>改PC，T相关指令的aluop，rx，ry，rd，删掉Top</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入两个新运算</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新转发，添加flush信号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1493,7 +1523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1582,6 +1612,19 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1612,13 +1655,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1925,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1953,21 +1989,21 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="30" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="30" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="34"/>
+      <c r="Q1" s="39"/>
       <c r="R1" s="2" t="s">
         <v>85</v>
       </c>
@@ -2101,10 +2137,10 @@
       <c r="F4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="5">
         <v>1</v>
       </c>
@@ -2223,10 +2259,10 @@
       <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="5">
         <v>1</v>
       </c>
@@ -2404,11 +2440,11 @@
       <c r="E9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="5">
         <v>0</v>
       </c>
@@ -2465,10 +2501,10 @@
       <c r="F10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="38"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="5">
         <v>0</v>
       </c>
@@ -2525,10 +2561,10 @@
       <c r="F11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="5">
         <v>0</v>
       </c>
@@ -2585,10 +2621,10 @@
       <c r="F12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="5">
         <v>0</v>
       </c>
@@ -2707,10 +2743,10 @@
       <c r="F14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="40"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="5">
         <v>0</v>
       </c>
@@ -2767,10 +2803,10 @@
       <c r="F15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="5">
         <v>1</v>
       </c>
@@ -2889,10 +2925,10 @@
       <c r="F17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="5">
         <v>1</v>
       </c>
@@ -2949,10 +2985,10 @@
       <c r="F18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="29"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="5">
         <v>1</v>
       </c>
@@ -3009,10 +3045,10 @@
       <c r="F19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="40"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="5">
         <v>1</v>
       </c>
@@ -3069,10 +3105,10 @@
       <c r="F20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="29"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="5">
         <v>1</v>
       </c>
@@ -3559,10 +3595,10 @@
       <c r="F28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="41"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="5">
         <v>0</v>
       </c>
@@ -3743,10 +3779,10 @@
       <c r="F31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="41"/>
+      <c r="H31" s="34"/>
       <c r="I31" s="5">
         <v>0</v>
       </c>
@@ -3910,11 +3946,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G31:H31"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
@@ -3927,6 +3958,11 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3936,145 +3972,215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H6" t="s">
-        <v>299</v>
-      </c>
-      <c r="I6" t="s">
-        <v>300</v>
-      </c>
-      <c r="J6" t="s">
-        <v>301</v>
-      </c>
-      <c r="K6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>308</v>
+    <row r="1" spans="1:20" ht="31.2">
+      <c r="A1" s="10">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>0</v>
+      </c>
+      <c r="R1" s="5">
+        <v>0</v>
+      </c>
+      <c r="S1" s="5">
+        <v>0</v>
+      </c>
+      <c r="T1" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="31.2">
+      <c r="A2" s="10">
+        <v>28</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="31.2">
+      <c r="A3" s="10">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4083,10 +4189,176 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="50.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J6" t="s">
+        <v>301</v>
+      </c>
+      <c r="K6" t="s">
+        <v>302</v>
+      </c>
+      <c r="L6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4113,21 +4385,21 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="30" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="30" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="34"/>
+      <c r="Q1" s="39"/>
       <c r="R1" s="2" t="s">
         <v>85</v>
       </c>
@@ -4258,11 +4530,11 @@
       <c r="E4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="5">
         <v>0</v>
       </c>
@@ -4319,10 +4591,10 @@
       <c r="F5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="38"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="5">
         <v>0</v>
       </c>
@@ -4379,10 +4651,10 @@
       <c r="F6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="5">
         <v>0</v>
       </c>
@@ -4439,10 +4711,10 @@
       <c r="F7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="44"/>
       <c r="I7" s="5">
         <v>0</v>
       </c>
@@ -4499,10 +4771,10 @@
       <c r="F8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="40"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="5">
         <v>0</v>
       </c>
@@ -4556,7 +4828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -4663,7 +4935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
